--- a/biology/Botanique/Orchis_spitzelii/Orchis_spitzelii.xlsx
+++ b/biology/Botanique/Orchis_spitzelii/Orchis_spitzelii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchis spitzelii, l'orchis de Spitzel, également appelé orchis à corne courte, est une espèce de plante herbacée vivace de la famille des Orchidacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tiges de 20 à 40 cm, feuilles en rosette à la base, fleurs au labelle trilobé, tacheté, nettement plus grand que le périanthe[1]; intérieur des sépales et pétales verdâtre; l'éperon forme un angle aigu par rapport au labelle.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tiges de 20 à 40 cm, feuilles en rosette à la base, fleurs au labelle trilobé, tacheté, nettement plus grand que le périanthe; intérieur des sépales et pétales verdâtre; l'éperon forme un angle aigu par rapport au labelle.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mai à juillet.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bois.
 </t>
@@ -604,7 +622,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Peu fréquente : Espagne, France : Pyrénées orientales, Alpes, limite nord : Jura ; Europe centrale et orientale, Grèce.
 </t>
